--- a/RS485.xlsx
+++ b/RS485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allegro\Project\CanhMai\Lib\Schematic_And_FootPrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8EC1E1-720C-4AD5-A7F5-5BC286DB28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657C61DD-932B-4E6F-B909-98C6AFEB9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C1003EAE-3AE9-47E7-A73C-09813F9BB497}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>1A</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Input </t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>DIx</t>
+  </si>
+  <si>
+    <t>12 Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_DIx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_DOx </t>
   </si>
 </sst>
 </file>
@@ -441,31 +462,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983AABA2-3427-4EF4-A898-7B639D219976}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -473,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -481,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -489,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -497,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>11</v>
       </c>
@@ -505,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>10</v>
       </c>
@@ -513,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>13</v>
       </c>
@@ -521,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>12</v>
       </c>
